--- a/数据整理/stocks/港股/00968-信义光能.xlsx
+++ b/数据整理/stocks/港股/00968-信义光能.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>378006</t>
+          <t>008131</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>上投摩根全球新兴市场混合(QDII)</t>
+          <t>景顺长城竞争优势混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>102.13</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9</v>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8716</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010104</t>
+          <t>006345</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城消费精选混合A</t>
+          <t>景顺长城集英成长两年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>52.33</t>
+          <t>81.02</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4642</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010105</t>
+          <t>007412</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城消费精选混合C</t>
+          <t>景顺长城绩优成长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>52.33</t>
+          <t>82.46</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.4446</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>000934</t>
+          <t>000979</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII</t>
+          <t>景顺长城沪港深精选股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.15</t>
+          <t>27.02</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5939</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006370</t>
+          <t>008712</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国富大中华精选混合QDII美元</t>
+          <t>景顺长城品质成长混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>87.15</t>
+          <t>34.85</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4256</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010671</t>
+          <t>010104</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
+          <t>景顺长城消费精选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>50.70</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>52.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6376</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>262001</t>
+          <t>004476</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>景顺长城大中华混合(QDII)</t>
+          <t>景顺长城沪港深领先科技股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>31.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6092</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006127</t>
+          <t>009098</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+          <t>景顺长城价值领航两年持有期混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>21.73</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2929</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -716,25 +806,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>008972</t>
+          <t>008850</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>大成恒生综合中小型股指数C</t>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>16.59</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9888</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>040018</t>
+          <t>008060</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华安香港精选股票(QDII)</t>
+          <t>景顺长城价值边际灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.89</t>
+          <t>13.75</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>63.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8718</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>040021</t>
+          <t>000934</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华安大中华升级股票(QDII)</t>
+          <t>国富大中华精选混合QDII</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>17.40</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4541</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>160922</t>
+          <t>006370</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+          <t>国富大中华精选混合QDII美元</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90.63</t>
+          <t>17.40</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4541</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>501021</t>
+          <t>010671</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+          <t>景顺长城大中华混合(QDII)美元</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3664</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>006106</t>
+          <t>262001</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>景顺长城量化港股通股票</t>
+          <t>景顺长城大中华混合(QDII)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>87.87</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3664</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>006923</t>
+          <t>008657</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
+          <t>景顺长城科技创新混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>89.61</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3473</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006345</t>
+          <t>005914</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>景顺长城集英成长两年定期开放混合</t>
+          <t>景顺长城智能生活混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>5.38</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2706</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006924</t>
+          <t>501021</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>89.61</t>
+          <t>12.34</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2665</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -968,25 +1148,35 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>000979</t>
+          <t>009598</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>景顺长城沪港深精选股票</t>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>82.45</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>9.60</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>004476</t>
+          <t>040018</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>景顺长城沪港深领先科技股票</t>
+          <t>华安香港精选股票(QDII)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>83.53</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>1</v>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>160322</t>
+          <t>005197</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>华夏港股通精选股票(LOF)</t>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>91.70</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>6</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>004996</t>
+          <t>005198</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -1080,26 +1300,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>501303</t>
+          <t>160322</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+          <t>华夏港股通精选股票(LOF)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>93.79</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>2</v>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1108,26 +1338,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>008060</t>
+          <t>006923</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>景顺长城价值边际灵活配置混合</t>
+          <t>前海开源沪港深非周期性行业股票A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>63.61</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -1136,26 +1376,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>008850</t>
+          <t>010105</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+          <t>景顺长城消费精选混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>64.30</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>2</v>
+          <t>52.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -1164,26 +1414,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>009598</t>
+          <t>005701</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+          <t>上投摩根香港精选港股通混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>77.24</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="27">
@@ -1192,26 +1452,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>005197</t>
+          <t>006127</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深精选灵活配置混合A</t>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
           <t>94.72</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>3</v>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="28">
@@ -1220,26 +1490,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>005198</t>
+          <t>007132</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深精选灵活配置混合C</t>
+          <t>长城港股通价值精选多策略混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>3</v>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="29">
@@ -1248,26 +1528,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>005701</t>
+          <t>501303</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>上投摩根香港精选港股通混合</t>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>89.12</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -1276,26 +1566,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>005883</t>
+          <t>006924</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华宝港股通香港精选混合</t>
+          <t>前海开源沪港深非周期性行业股票C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>89.94</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="31">
@@ -1304,26 +1604,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>005914</t>
+          <t>040021</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>景顺长城智能生活混合</t>
+          <t>华安大中华升级股票(QDII)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>85.25</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>1</v>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1332,26 +1642,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>007132</t>
+          <t>378006</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>长城港股通价值精选多策略混合</t>
+          <t>上投摩根全球新兴市场混合(QDII)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>88.86</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>7</v>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -1360,26 +1680,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>007412</t>
+          <t>005883</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>景顺长城绩优成长混合</t>
+          <t>华宝港股通香港精选混合</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>92.94</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>7</v>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34">
@@ -1388,26 +1718,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>008131</t>
+          <t>006106</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>景顺长城竞争优势混合</t>
+          <t>景顺长城量化港股通股票</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>75.58</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>2</v>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="35">
@@ -1416,26 +1756,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>008657</t>
+          <t>004996</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>景顺长城科技创新混合</t>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>1</v>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
@@ -1444,26 +1794,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>008712</t>
+          <t>008972</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>景顺长城品质成长混合</t>
+          <t>大成恒生综合中小型股指数C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>4</v>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="37">
@@ -1472,25 +1832,35 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>009098</t>
+          <t>160922</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>景顺长城价值领航两年持有期混合</t>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>70.46</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1505,7 +1875,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1526,15 +1896,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000979</t>
+          <t>008131</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城沪港深精选股票</t>
+          <t>景顺长城竞争优势混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83.92</t>
+          <t>59.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8438</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008060</t>
+          <t>004476</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城价值边际灵活配置混合</t>
+          <t>景顺长城沪港深领先科技股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>77.74</t>
+          <t>32.79</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4559</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>008850</t>
+          <t>000979</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+          <t>景顺长城沪港深精选股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>70.29</t>
+          <t>24.44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.79</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>83.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2782</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009598</t>
+          <t>010289</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+          <t>景顺长城产业趋势混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82.86</t>
+          <t>75.75</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>35.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2272</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005197</t>
+          <t>008712</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深精选灵活配置混合A</t>
+          <t>景顺长城品质成长混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>26.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>90.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.2138</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005198</t>
+          <t>009098</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银瑞信沪港深精选灵活配置混合C</t>
+          <t>景顺长城价值领航两年持有期混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.82</t>
+          <t>22.94</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>69.93</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0965</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -1724,15 +2164,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>18.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>86.09</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>5.85</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0647</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010289</t>
+          <t>008850</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>景顺长城产业趋势混合</t>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>35.57</t>
+          <t>17.34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>70.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8306</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501303</t>
+          <t>008060</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+          <t>景顺长城价值边际灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>9.93</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>77.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4637</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004996</t>
+          <t>005197</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>9.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.11</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3072</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>160125</t>
+          <t>008657</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>南方香港优选股票QDII-LOF</t>
+          <t>景顺长城科技创新混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>82.53</t>
+          <t>4.53</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.28</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>9</v>
+          <t>89.17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2202</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008657</t>
+          <t>009598</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>景顺长城科技创新混合</t>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>89.17</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>3</v>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008712</t>
+          <t>160125</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>景顺长城品质成长混合</t>
+          <t>南方香港优选股票QDII-LOF</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>90.18</t>
+          <t>4.49</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>82.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009098</t>
+          <t>005914</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>景顺长城价值领航两年持有期混合</t>
+          <t>景顺长城智能生活混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>69.93</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1938,25 +2458,35 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005914</t>
+          <t>005198</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>景顺长城智能生活混合</t>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.58</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008131</t>
+          <t>501303</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>景顺长城竞争优势混合</t>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>91.98</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>004476</t>
+          <t>004996</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>景顺长城沪港深领先科技股票</t>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>87.66</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4.44</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/00968-信义光能.xlsx
+++ b/数据整理/stocks/港股/00968-信义光能.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2569,4 +2570,212 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006345</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城集英成长两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>70.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.1913</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011783</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德睿源三年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.5283</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1253</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5270</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00968-信义光能.xlsx
+++ b/数据整理/stocks/港股/00968-信义光能.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2778,4 +2779,630 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011783</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德睿源三年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.0572</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0524</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006345</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城集英成长两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>61.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.1252</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8381</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6747</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007139</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国民裕进取沪港深成长精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>15.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5317</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3065</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2414</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009108</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国红利精选混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009193</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国红利精选混合（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>9.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>64.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>64.84</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00968-信义光能.xlsx
+++ b/数据整理/stocks/港股/00968-信义光能.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3405,4 +3406,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>28.53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/00968-信义光能.xlsx
+++ b/数据整理/stocks/港股/00968-信义光能.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3414,7 +3415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3425,17 +3426,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3445,14 +3466,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.71</v>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.9980</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3461,14 +3504,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>6.37</v>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6316</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3477,14 +3542,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.51</v>
+          <t>011635</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3223</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -3493,13 +3580,341 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2728</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2588</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1393</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011636</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国港股通策略精选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.71</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>36</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>28.53</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00968-信义光能.xlsx
+++ b/数据整理/stocks/港股/00968-信义光能.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3813,7 +3814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3824,17 +3825,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3844,14 +3865,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.75</v>
+          <t>009014</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德睿泽混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9385</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3860,14 +3903,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>15</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.71</v>
+          <t>011783</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德睿源三年持有期灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>72.24</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3334</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3876,14 +3941,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="n">
-        <v>6.37</v>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8939</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -3892,14 +3979,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>12.51</v>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.73</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4392</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3908,13 +4017,623 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8639</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012193</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德睿诚混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.16</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4899</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3368</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005583</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达港股通红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2841</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011530</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泓德优质治理灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>97.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1459</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1176</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160125</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方香港优选股票QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>17</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.31</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>36</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>28.53</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00968-信义光能.xlsx
+++ b/数据整理/stocks/港股/00968-信义光能.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4516,7 +4517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4527,17 +4528,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4547,14 +4568,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>17</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.31</v>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0619</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -4563,14 +4606,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.75</v>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>24.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0187</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4579,14 +4644,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>15</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.71</v>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -4595,14 +4682,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.37</v>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0977</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -4611,14 +4720,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>17</v>
-      </c>
-      <c r="D6" t="n">
-        <v>12.51</v>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -4627,13 +4758,183 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.31</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>36</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>28.53</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/00968-信义光能.xlsx
+++ b/数据整理/stocks/港股/00968-信义光能.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>3.55</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>11.31</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>5.75</v>
+        <v>11.31</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>11.71</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D6" t="n">
-        <v>6.37</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>12.51</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>17</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>36</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>28.53</v>
       </c>
     </row>
@@ -600,6 +617,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002121</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1427</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159636</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信国证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2829</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010024</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发沪港深新起点股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -883,7 +1146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1585,7 +1848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1983,7 +2246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2609,7 +2872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2817,7 +3080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3519,7 +3782,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/00968-信义光能.xlsx
+++ b/数据整理/stocks/港股/00968-信义光能.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1.52</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>3.55</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>11.31</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>5.75</v>
+        <v>11.31</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>11.71</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D7" t="n">
-        <v>6.37</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>12.51</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>17</v>
+      </c>
+      <c r="D9" t="n">
+        <v>12.51</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>36</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>28.53</v>
       </c>
     </row>
@@ -616,7 +633,1563 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008131</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>102.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8716</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006345</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城集英成长两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>81.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4642</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007412</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城绩优成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.4446</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5939</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008712</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城品质成长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.85</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4256</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010104</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>50.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>52.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.6376</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004476</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深领先科技股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.6092</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009098</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>景顺长城价值领航两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>70.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.2929</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008850</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.59</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>64.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9888</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008060</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>景顺长城价值边际灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>63.61</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8718</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000934</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4541</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006370</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国富大中华精选混合QDII美元</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4541</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010671</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3664</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>262001</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>景顺长城大中华混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3664</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3473</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005914</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>景顺长城智能生活混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.25</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2706</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2665</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>77.24</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2162</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>040018</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华安香港精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1498</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005197</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005198</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>160322</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏港股通精选股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006923</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010105</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>景顺长城消费精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>52.33</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005701</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>上投摩根香港精选港股通混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>501303</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006924</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源沪港深非周期性行业股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>040021</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安大中华升级股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>378006</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>上投摩根全球新兴市场混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005883</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝港股通香港精选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>006106</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>景顺长城量化港股通股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004996</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发港股通恒生综合中型股指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008972</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160922</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501021</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006127</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝标普香港上市中国中小盘指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -862,7 +2435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1146,7 +2719,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1848,7 +3421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2246,7 +3819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2872,7 +4445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3080,7 +4653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3780,1428 +5353,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H37"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>008131</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>景顺长城竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>102.13</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>75.58</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4.8716</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>006345</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城集英成长两年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>81.02</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.51</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4.4642</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007412</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城绩优成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>82.46</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>4.4446</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000979</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>景顺长城沪港深精选股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>27.02</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.45</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.60</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>2.5939</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008712</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>景顺长城品质成长混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>34.85</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.08</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>2.4256</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010104</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>景顺长城消费精选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>50.70</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>52.33</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>1.6376</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>004476</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>景顺长城沪港深领先科技股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>31.43</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>83.53</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>1.6092</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009098</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>景顺长城价值领航两年持有期混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>21.73</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>70.46</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>1.2929</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008850</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>景顺长城价值稳进三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>16.59</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>64.30</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.9888</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008060</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>景顺长城价值边际灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>13.75</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>63.61</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>6.34</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.8718</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>000934</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>国富大中华精选混合QDII</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>17.40</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>87.15</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.4541</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006370</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国富大中华精选混合QDII美元</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>17.40</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>87.15</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.4541</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>010671</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.3664</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>262001</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>景顺长城大中华混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.90</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>6.44</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.3664</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>008657</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>景顺长城科技创新混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6.04</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>90.72</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>5.75</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.3473</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005914</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>景顺长城智能生活混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>85.25</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>5.03</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2706</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>501021</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>12.34</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.2665</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>009598</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.96</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>77.24</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.2162</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>040018</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华安香港精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>92.89</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1498</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>005197</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深精选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0799</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>005198</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>工银瑞信沪港深精选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0764</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>160322</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>华夏港股通精选股票(LOF)</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1.11</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>91.70</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0511</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>006923</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>89.61</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0457</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>010105</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>景顺长城消费精选混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>52.33</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0287</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005701</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>上投摩根香港精选港股通混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>89.12</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0283</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>006127</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>华宝兴业标普香港上市中国中小盘指数(QDII-LOF)C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>94.72</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0246</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>007132</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>长城港股通价值精选多策略混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>88.86</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0171</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>501303</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0150</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>006924</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>前海开源沪港深非周期性行业股票C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>89.61</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0147</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>040021</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>华安大中华升级股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>93.47</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0143</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>378006</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>上投摩根全球新兴市场混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>91.95</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.31</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0136</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>005883</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>华宝港股通香港精选混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>89.94</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.19</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0109</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>006106</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>景顺长城量化港股通股票</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>87.87</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>004996</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>广发港股通恒生综合中型股指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0051</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>008972</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>160922</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>大成恒生综合中小型股指数(QDII-LOF)A</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.14</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>90.63</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>